--- a/Log - Moises Urias.xlsx
+++ b/Log - Moises Urias.xlsx
@@ -5,17 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\Desktop\Cemaco\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="4152"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Fecha</t>
   </si>
@@ -91,6 +90,9 @@
   </si>
   <si>
     <t>Formulario de LOG</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -524,7 +526,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,7 +673,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F20" s="6"/>
     </row>
   </sheetData>
